--- a/Phase_I/End-Sem/50thresh_50epoch/test_results.xlsx
+++ b/Phase_I/End-Sem/50thresh_50epoch/test_results.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anind\Documents\Dissertation Codes\bar\drl_agent\testing_visualizations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Image name</t>
   </si>
@@ -40,15 +45,15 @@
     <t>007486</t>
   </si>
   <si>
+    <t>max number of steps</t>
+  </si>
+  <si>
+    <t>007503</t>
+  </si>
+  <si>
     <t>STOP q-value</t>
   </si>
   <si>
-    <t>007503</t>
-  </si>
-  <si>
-    <t>max number of steps</t>
-  </si>
-  <si>
     <t>007626</t>
   </si>
   <si>
@@ -137,13 +142,22 @@
   </si>
   <si>
     <t>Bad detections + STOP</t>
+  </si>
+  <si>
+    <t>IoU increase: 25</t>
+  </si>
+  <si>
+    <t>IoU decrease: 1</t>
+  </si>
+  <si>
+    <t>IoU average: 0.4947499111416092</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +194,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -226,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,9 +280,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,6 +315,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -467,14 +491,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -526,13 +552,13 @@
         <v>0.4</v>
       </c>
       <c r="C2">
-        <v>0.61</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D2">
         <v>0.64</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -541,19 +567,19 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>0.28</v>
+        <v>0.69</v>
       </c>
       <c r="K2">
-        <v>0.16</v>
+        <v>0.54</v>
       </c>
       <c r="L2">
-        <v>0.28</v>
+        <v>0.69</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -562,7 +588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -570,13 +596,13 @@
         <v>0.32</v>
       </c>
       <c r="C3">
-        <v>0.64</v>
+        <v>0.35</v>
       </c>
       <c r="D3">
-        <v>0.64</v>
+        <v>0.35</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -585,7 +611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -593,22 +619,22 @@
         <v>0.44</v>
       </c>
       <c r="C4">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="D4">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -616,22 +642,22 @@
         <v>0.61</v>
       </c>
       <c r="C5">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="D5">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -639,36 +665,36 @@
         <v>0.52</v>
       </c>
       <c r="C6">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="D6">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C7">
-        <v>0.41</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D7">
-        <v>0.41</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -677,44 +703,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>0.2</v>
       </c>
-      <c r="C8">
-        <v>0.33</v>
-      </c>
-      <c r="D8">
-        <v>0.33</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>0.37</v>
-      </c>
       <c r="C9">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="D9">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -723,30 +749,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.6899999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="C10">
-        <v>0.6899999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="D10">
-        <v>0.6899999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -766,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -777,7 +803,7 @@
         <v>0.02</v>
       </c>
       <c r="C12">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D12">
         <v>0.03</v>
@@ -789,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -812,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -823,13 +849,13 @@
         <v>0.22</v>
       </c>
       <c r="C14">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="D14">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -838,7 +864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -846,22 +872,22 @@
         <v>0.39</v>
       </c>
       <c r="C15">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="D15">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -869,10 +895,10 @@
         <v>0.09</v>
       </c>
       <c r="C16">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="D16">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -881,18 +907,18 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C17">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="D17">
         <v>0.16</v>
@@ -904,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -915,10 +941,10 @@
         <v>0.32</v>
       </c>
       <c r="C18">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="D18">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -927,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -938,10 +964,10 @@
         <v>0.33</v>
       </c>
       <c r="C19">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="D19">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -950,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -961,22 +987,22 @@
         <v>0.47</v>
       </c>
       <c r="C20">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="D20">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -984,22 +1010,22 @@
         <v>0.54</v>
       </c>
       <c r="C21">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="D21">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1007,13 +1033,13 @@
         <v>0.75</v>
       </c>
       <c r="C22">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="D22">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1022,18 +1048,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="C23">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="D23">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1042,33 +1068,33 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C24">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="D24">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1088,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1111,24 +1137,24 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
       <c r="C27">
         <f>AVERAGE(C2:C26)</f>
-        <v>0</v>
+        <v>0.49279999999999985</v>
       </c>
       <c r="D27">
         <f>AVERAGE(D2:D26)</f>
-        <v>0</v>
+        <v>0.49879999999999997</v>
       </c>
       <c r="E27">
         <f>AVERAGE(E2:E26)</f>
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="F27">
         <f>AVERAGE(F2:F26)</f>
@@ -1139,22 +1165,22 @@
       </c>
       <c r="K27">
         <f>AVERAGE(K2:K2)</f>
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="L27">
         <f>AVERAGE(L2:L2)</f>
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="M27">
         <f>AVERAGE(M2:M2)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N27">
         <f>AVERAGE(N2:N2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1168,26 +1194,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
         <v>40</v>
       </c>
       <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
         <v>37</v>
@@ -1196,20 +1222,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32">
         <f>(SUM(C2:C26)-SUM(B2:B26))/25</f>
-        <v>0</v>
+        <v>8.4799999999999903E-2</v>
       </c>
       <c r="I32" t="s">
         <v>38</v>
       </c>
       <c r="J32">
         <f>(SUM(K2:K2)-SUM(J2:J2))/1</f>
-        <v>0</v>
+        <v>-0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
